--- a/trueResults.xlsx
+++ b/trueResults.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>traces</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>nbr de Read</t>
   </si>
@@ -49,9 +46,6 @@
     <t>multTraceSuccess</t>
   </si>
   <si>
-    <t>assoc</t>
-  </si>
-  <si>
     <t>temps exec</t>
   </si>
   <si>
@@ -68,6 +62,42 @@
   </si>
   <si>
     <t>valeurCyclesPerdusMergesort2000Trace</t>
+  </si>
+  <si>
+    <t>Traces</t>
+  </si>
+  <si>
+    <t>multTrace10x10DefautsLecture</t>
+  </si>
+  <si>
+    <t>multTrace10x10DefautsEcriture</t>
+  </si>
+  <si>
+    <t>Taille d'un bloc</t>
+  </si>
+  <si>
+    <t>mergesort2000DefautsLecture</t>
+  </si>
+  <si>
+    <t>mergesort2000DefautsEcritue</t>
+  </si>
+  <si>
+    <t>multTraceDefautsLecture</t>
+  </si>
+  <si>
+    <t>multTraceDefautsEcriture</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>défautsEcriture</t>
+  </si>
+  <si>
+    <t>défautsLecture</t>
+  </si>
+  <si>
+    <t>Degré d'associativité</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1863,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.14939814814814811"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4232,15 +4269,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292376</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167101</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>552864</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52801</xdr:rowOff>
+      <xdr:colOff>260488</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11388</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4261,16 +4298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>704023</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>160683</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>110987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>46383</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>187187</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4579,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,9 +4629,9 @@
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1">
         <v>8</v>
@@ -4621,9 +4658,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1976</v>
@@ -4650,9 +4687,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>894504</v>
@@ -4679,9 +4716,9 @@
         <v>20979840</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>16646227</v>
@@ -4708,9 +4745,9 @@
         <v>558430880</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>152</v>
@@ -4737,9 +4774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4766,9 +4803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6248</v>
@@ -4795,9 +4832,9 @@
         <v>6398</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>56632</v>
@@ -4824,9 +4861,9 @@
         <v>105952</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>12176</v>
@@ -4853,9 +4890,9 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>94464</v>
@@ -4882,9 +4919,9 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1248089</v>
@@ -4911,9 +4948,9 @@
         <v>2988885</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>32390</v>
@@ -4940,9 +4977,9 @@
         <v>999907</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>4791911</v>
@@ -4969,25 +5006,199 @@
         <v>3051115</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="J16">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>44434</v>
+      </c>
+      <c r="C16">
+        <v>44749</v>
+      </c>
+      <c r="D16">
+        <v>47292</v>
+      </c>
+      <c r="E16">
+        <v>51238</v>
+      </c>
+      <c r="F16">
+        <v>55995</v>
+      </c>
+      <c r="G16">
+        <v>60608</v>
+      </c>
+      <c r="H16">
+        <v>64855</v>
+      </c>
+      <c r="I16">
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>12198</v>
+      </c>
+      <c r="C17">
+        <v>9889</v>
+      </c>
+      <c r="D17">
+        <v>10190</v>
+      </c>
+      <c r="E17">
+        <v>13161</v>
+      </c>
+      <c r="F17">
+        <v>17154</v>
+      </c>
+      <c r="G17">
+        <v>25476</v>
+      </c>
+      <c r="H17">
+        <v>32601</v>
+      </c>
+      <c r="I17">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1215678</v>
+      </c>
+      <c r="C18">
+        <v>1145910</v>
+      </c>
+      <c r="D18">
+        <v>1199925</v>
+      </c>
+      <c r="E18">
+        <v>1212706</v>
+      </c>
+      <c r="F18">
+        <v>1327437</v>
+      </c>
+      <c r="G18">
+        <v>1563844</v>
+      </c>
+      <c r="H18">
+        <v>1745573</v>
+      </c>
+      <c r="I18">
+        <v>1988977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>32411</v>
+      </c>
+      <c r="C19">
+        <v>42876</v>
+      </c>
+      <c r="D19">
+        <v>83058</v>
+      </c>
+      <c r="E19">
+        <v>162552</v>
+      </c>
+      <c r="F19">
+        <v>313054</v>
+      </c>
+      <c r="G19">
+        <v>561226</v>
+      </c>
+      <c r="H19">
+        <v>826715</v>
+      </c>
+      <c r="I19">
+        <v>999908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>5200</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>1200</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>85240</v>
@@ -4995,7 +5206,7 @@
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>65856</v>
@@ -5003,7 +5214,7 @@
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>5020000</v>
@@ -5011,7 +5222,7 @@
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>1020000</v>
@@ -5019,7 +5230,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68">
         <v>604380</v>
@@ -5027,7 +5238,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -5050,7 +5261,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>5872690</v>
@@ -5069,10 +5280,689 @@
       </c>
       <c r="G70">
         <v>11802975</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>81774</v>
+      </c>
+      <c r="C71">
+        <v>86697</v>
+      </c>
+      <c r="D71">
+        <v>84587</v>
+      </c>
+      <c r="E71">
+        <v>75257</v>
+      </c>
+      <c r="F71">
+        <v>65196</v>
+      </c>
+      <c r="G71">
+        <v>55513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>55119</v>
+      </c>
+      <c r="C72">
+        <v>51238</v>
+      </c>
+      <c r="D72">
+        <v>54429</v>
+      </c>
+      <c r="E72">
+        <v>58833</v>
+      </c>
+      <c r="F72">
+        <v>63970</v>
+      </c>
+      <c r="G72">
+        <v>69825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <v>14203</v>
+      </c>
+      <c r="C73">
+        <v>13161</v>
+      </c>
+      <c r="D73">
+        <v>12080</v>
+      </c>
+      <c r="E73">
+        <v>17006</v>
+      </c>
+      <c r="F73">
+        <v>21930</v>
+      </c>
+      <c r="G73">
+        <v>25758</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>32</v>
+      </c>
+      <c r="E97">
+        <v>64</v>
+      </c>
+      <c r="F97">
+        <v>128</v>
+      </c>
+      <c r="G97">
+        <v>256</v>
+      </c>
+      <c r="H97">
+        <v>512</v>
+      </c>
+      <c r="I97">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>1976</v>
+      </c>
+      <c r="C98">
+        <v>1064</v>
+      </c>
+      <c r="D98">
+        <v>608</v>
+      </c>
+      <c r="E98">
+        <v>380</v>
+      </c>
+      <c r="F98">
+        <v>280</v>
+      </c>
+      <c r="G98">
+        <v>220</v>
+      </c>
+      <c r="H98">
+        <v>228</v>
+      </c>
+      <c r="I98">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>152</v>
+      </c>
+      <c r="C99">
+        <v>76</v>
+      </c>
+      <c r="D99">
+        <v>38</v>
+      </c>
+      <c r="E99">
+        <v>19</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>6248</v>
+      </c>
+      <c r="C101">
+        <v>6324</v>
+      </c>
+      <c r="D101">
+        <v>6362</v>
+      </c>
+      <c r="E101">
+        <v>6381</v>
+      </c>
+      <c r="F101">
+        <v>6390</v>
+      </c>
+      <c r="G101">
+        <v>6395</v>
+      </c>
+      <c r="H101">
+        <v>6397</v>
+      </c>
+      <c r="I101">
+        <v>6398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>51</v>
+      </c>
+      <c r="D102">
+        <v>26</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>7</v>
+      </c>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103">
+        <v>51</v>
+      </c>
+      <c r="C103">
+        <v>25</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>32</v>
+      </c>
+      <c r="E106">
+        <v>64</v>
+      </c>
+      <c r="F106">
+        <v>128</v>
+      </c>
+      <c r="G106">
+        <v>256</v>
+      </c>
+      <c r="H106">
+        <v>512</v>
+      </c>
+      <c r="I106">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>894504</v>
+      </c>
+      <c r="C107">
+        <v>903224</v>
+      </c>
+      <c r="D107">
+        <v>1082576</v>
+      </c>
+      <c r="E107">
+        <v>1551160</v>
+      </c>
+      <c r="F107">
+        <v>2528596</v>
+      </c>
+      <c r="G107">
+        <v>4909256</v>
+      </c>
+      <c r="H107">
+        <v>9886688</v>
+      </c>
+      <c r="I107">
+        <v>20979840</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>56632</v>
+      </c>
+      <c r="C108">
+        <v>54638</v>
+      </c>
+      <c r="D108">
+        <v>57482</v>
+      </c>
+      <c r="E108">
+        <v>64399</v>
+      </c>
+      <c r="F108">
+        <v>73149</v>
+      </c>
+      <c r="G108">
+        <v>86084</v>
+      </c>
+      <c r="H108">
+        <v>97456</v>
+      </c>
+      <c r="I108">
+        <v>105952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>12176</v>
+      </c>
+      <c r="C109">
+        <v>9878</v>
+      </c>
+      <c r="D109">
+        <v>10179</v>
+      </c>
+      <c r="E109">
+        <v>13159</v>
+      </c>
+      <c r="F109">
+        <v>17125</v>
+      </c>
+      <c r="G109">
+        <v>25490</v>
+      </c>
+      <c r="H109">
+        <v>32632</v>
+      </c>
+      <c r="I109">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
+        <v>94464</v>
+      </c>
+      <c r="C110">
+        <v>96458</v>
+      </c>
+      <c r="D110">
+        <v>93614</v>
+      </c>
+      <c r="E110">
+        <v>86697</v>
+      </c>
+      <c r="F110">
+        <v>77947</v>
+      </c>
+      <c r="G110">
+        <v>65012</v>
+      </c>
+      <c r="H110">
+        <v>53640</v>
+      </c>
+      <c r="I110">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111">
+        <v>44434</v>
+      </c>
+      <c r="C111">
+        <v>44749</v>
+      </c>
+      <c r="D111">
+        <v>47292</v>
+      </c>
+      <c r="E111">
+        <v>51238</v>
+      </c>
+      <c r="F111">
+        <v>55995</v>
+      </c>
+      <c r="G111">
+        <v>60608</v>
+      </c>
+      <c r="H111">
+        <v>64855</v>
+      </c>
+      <c r="I111">
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112">
+        <v>12198</v>
+      </c>
+      <c r="C112">
+        <v>9889</v>
+      </c>
+      <c r="D112">
+        <v>10190</v>
+      </c>
+      <c r="E112">
+        <v>13161</v>
+      </c>
+      <c r="F112">
+        <v>17154</v>
+      </c>
+      <c r="G112">
+        <v>25476</v>
+      </c>
+      <c r="H112">
+        <v>32601</v>
+      </c>
+      <c r="I112">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>32</v>
+      </c>
+      <c r="E116">
+        <v>64</v>
+      </c>
+      <c r="F116">
+        <v>128</v>
+      </c>
+      <c r="G116">
+        <v>256</v>
+      </c>
+      <c r="H116">
+        <v>512</v>
+      </c>
+      <c r="I116">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>16646227</v>
+      </c>
+      <c r="C117">
+        <v>17242904</v>
+      </c>
+      <c r="D117">
+        <v>21856336</v>
+      </c>
+      <c r="E117">
+        <v>30754880</v>
+      </c>
+      <c r="F117">
+        <v>54699204</v>
+      </c>
+      <c r="G117">
+        <v>118196936</v>
+      </c>
+      <c r="H117">
+        <v>258324152</v>
+      </c>
+      <c r="I117">
+        <v>558430880</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118">
+        <v>1248089</v>
+      </c>
+      <c r="C118">
+        <v>1188786</v>
+      </c>
+      <c r="D118">
+        <v>1282983</v>
+      </c>
+      <c r="E118">
+        <v>1375228</v>
+      </c>
+      <c r="F118">
+        <v>1640491</v>
+      </c>
+      <c r="G118">
+        <v>2125070</v>
+      </c>
+      <c r="H118">
+        <v>2572288</v>
+      </c>
+      <c r="I118">
+        <v>2988885</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>32390</v>
+      </c>
+      <c r="C119">
+        <v>42850</v>
+      </c>
+      <c r="D119">
+        <v>83038</v>
+      </c>
+      <c r="E119">
+        <v>162516</v>
+      </c>
+      <c r="F119">
+        <v>313052</v>
+      </c>
+      <c r="G119">
+        <v>561224</v>
+      </c>
+      <c r="H119">
+        <v>826714</v>
+      </c>
+      <c r="I119">
+        <v>999907</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>4791911</v>
+      </c>
+      <c r="C120">
+        <v>4851214</v>
+      </c>
+      <c r="D120">
+        <v>4757017</v>
+      </c>
+      <c r="E120">
+        <v>4664772</v>
+      </c>
+      <c r="F120">
+        <v>4399509</v>
+      </c>
+      <c r="G120">
+        <v>3914930</v>
+      </c>
+      <c r="H120">
+        <v>3467712</v>
+      </c>
+      <c r="I120">
+        <v>3051115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>1215678</v>
+      </c>
+      <c r="C121">
+        <v>1145910</v>
+      </c>
+      <c r="D121">
+        <v>1199925</v>
+      </c>
+      <c r="E121">
+        <v>1212706</v>
+      </c>
+      <c r="F121">
+        <v>1327437</v>
+      </c>
+      <c r="G121">
+        <v>1563844</v>
+      </c>
+      <c r="H121">
+        <v>1745573</v>
+      </c>
+      <c r="I121">
+        <v>1988977</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>32411</v>
+      </c>
+      <c r="C122">
+        <v>42876</v>
+      </c>
+      <c r="D122">
+        <v>83058</v>
+      </c>
+      <c r="E122">
+        <v>162552</v>
+      </c>
+      <c r="F122">
+        <v>313054</v>
+      </c>
+      <c r="G122">
+        <v>561226</v>
+      </c>
+      <c r="H122">
+        <v>826715</v>
+      </c>
+      <c r="I122">
+        <v>999908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>